--- a/Skills 1 - Day 1 Arduino Coding/RC15_Arduino Shopping List.xlsx
+++ b/Skills 1 - Day 1 Arduino Coding/RC15_Arduino Shopping List.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vince\Dropbox\UCL RC15 Skills 2024\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vince\Dropbox\UCL RC15 Skills 2024\PervasiveUrbanism_24-25\Skills 1 - Day 1 Arduino Coding\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E025FA48-9B90-4109-83EE-BBCEEA9A7C8A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF5037F2-6DE5-4DD3-AC05-EDA9C72AD53D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-80" yWindow="-80" windowWidth="24160" windowHeight="15440" xr2:uid="{DFD87B7C-9F40-4E05-90AE-C99B142FB970}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="24220" windowHeight="15500" xr2:uid="{DFD87B7C-9F40-4E05-90AE-C99B142FB970}"/>
   </bookViews>
   <sheets>
     <sheet name="Shoping List" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="35">
   <si>
     <t>https://www.robotshop.com/uk/</t>
   </si>
@@ -53,12 +53,6 @@
     <t>comments</t>
   </si>
   <si>
-    <t>400 Tie Point Interlocking Solderless Breadboard</t>
-  </si>
-  <si>
-    <t>https://www.robotshop.com/uk/400-tie-point-solderless-interlocking-breadboard.html</t>
-  </si>
-  <si>
     <t>USB C to Type A Cable (1m)</t>
   </si>
   <si>
@@ -107,12 +101,6 @@
     <t xml:space="preserve">https://www.amazon.co.uk/ </t>
   </si>
   <si>
-    <t xml:space="preserve">Elegoo 120pcs Multicolored Dupont Wire </t>
-  </si>
-  <si>
-    <t>https://www.amazon.co.uk/Elegoo-120pcs-Multicolored-Breadboard-arduino/dp/B01EV70C78/ref=sr_1_3?ie=UTF8&amp;qid=1526043930&amp;sr=8-3&amp;keywords=jumper+wires</t>
-  </si>
-  <si>
     <t>SanDisk SDSDQB-016G-B35 16 GB Class 2 MicroSD Card with MicroSD to SD Adapter</t>
   </si>
   <si>
@@ -122,12 +110,6 @@
     <t>https://www.amazon.co.uk/Varta-Alkaline-Longlife-Batteries-Pack/dp/B005UJNXZ0/ref=sr_1_5?rps=1&amp;ie=UTF8&amp;qid=1526046209&amp;sr=8-5&amp;keywords=9+volt+battery&amp;refinements=p_76%3A419158031</t>
   </si>
   <si>
-    <t>Arduino Starter Kit</t>
-  </si>
-  <si>
-    <t>https://www.amazon.co.uk/Electronics-Fans-Arduino-Starter-Courses-A01/dp/B00MHUCYZA/ref=sr_1_5?dchild=1&amp;keywords=arduino+starter+kit&amp;qid=1605022855&amp;sr=8-5</t>
-  </si>
-  <si>
     <t>Grand Tot</t>
   </si>
   <si>
@@ -149,13 +131,16 @@
     <t>https://uk.robotshop.com/products/arduino-uno-rev4-wifi</t>
   </si>
   <si>
-    <t>The pi Hui</t>
-  </si>
-  <si>
     <t>9g Micro Servo Motor</t>
   </si>
   <si>
     <t>https://uk.robotshop.com/products/9g-micro-servo-motor-4-8v</t>
+  </si>
+  <si>
+    <t>Arduino Starter Kit (without board)</t>
+  </si>
+  <si>
+    <t>https://www.amazon.co.uk/Miuzei-Breadboard-Compatible-Resistance-Electronics/dp/B0BJF6TZJX/ref=sr_1_19?crid=3R9F0OJOUYCA9&amp;dib=eyJ2IjoiMSJ9.h_tAfB-cQSSSj9kVebIKTm8BUwW7PrPfegMu3NKpTFjNoeOf_41z1YhNh0Gww9ReneTs_qa5sYsYiM6CYuEGvDWzFyjX3bZHIMeFw-zuEmYY4pQ4q8NeyREWLEq2xszSpYvwJKqERJV_hhL9JNeMCTljkE-EoA2r5xwK-SiPIYGa5X8zA7G0JXUdAxzTTV2_1oA8tYhtEwvcaFIJ6F-4nEAwgmEukvir2M_v8dmJNs4.fhHxV_6PNS0VasA2yOyGmHuzc1NoGtdSDWtI_NO1VXQ&amp;dib_tag=se&amp;keywords=arduino+starter+kit+without+board&amp;nsdOptOutParam=true&amp;qid=1729960467&amp;sprefix=arduino+starter+kit+without+board%2Caps%2C74&amp;sr=8-19</t>
   </si>
 </sst>
 </file>
@@ -379,7 +364,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="51">
+  <cellXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -490,6 +475,12 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
@@ -499,16 +490,6 @@
     <xf numFmtId="0" fontId="6" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" xr:uid="{00000000-000B-0000-0000-000008000000}"/>
@@ -824,31 +805,31 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{039690A9-F03C-432F-BFE5-928987E6A212}">
-  <dimension ref="A1:E30"/>
+  <dimension ref="A1:E27"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J9" sqref="J9"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A2" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="60.5703125" style="3" customWidth="1"/>
-    <col min="2" max="2" width="20.5703125" style="5" customWidth="1"/>
-    <col min="3" max="3" width="37.28515625" style="3" customWidth="1"/>
+    <col min="1" max="1" width="60.54296875" style="3" customWidth="1"/>
+    <col min="2" max="2" width="20.54296875" style="5" customWidth="1"/>
+    <col min="3" max="3" width="37.26953125" style="3" customWidth="1"/>
     <col min="4" max="4" width="24" customWidth="1"/>
-    <col min="5" max="5" width="20.42578125" customWidth="1"/>
+    <col min="5" max="5" width="20.453125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="2" customFormat="1" ht="31.5" x14ac:dyDescent="0.3">
-      <c r="A1" s="44" t="s">
-        <v>32</v>
-      </c>
-      <c r="B1" s="45"/>
-      <c r="C1" s="45"/>
-      <c r="D1" s="45"/>
-      <c r="E1" s="46"/>
-    </row>
-    <row r="3" spans="1:5" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" s="2" customFormat="1" ht="31" x14ac:dyDescent="0.45">
+      <c r="A1" s="46" t="s">
+        <v>26</v>
+      </c>
+      <c r="B1" s="47"/>
+      <c r="C1" s="47"/>
+      <c r="D1" s="47"/>
+      <c r="E1" s="48"/>
+    </row>
+    <row r="3" spans="1:5" ht="18.5" x14ac:dyDescent="0.35">
       <c r="A3" s="17" t="s">
         <v>0</v>
       </c>
@@ -865,308 +846,278 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A4" s="21" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="B4" s="6">
         <v>28.87</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="D4" s="1"/>
       <c r="E4" s="22"/>
     </row>
-    <row r="5" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A5" s="23" t="s">
         <v>5</v>
       </c>
       <c r="B5" s="8">
-        <v>2</v>
+        <v>2.56</v>
       </c>
       <c r="C5" s="4" t="s">
         <v>6</v>
       </c>
       <c r="E5" s="24"/>
     </row>
-    <row r="6" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A6" s="23" t="s">
         <v>7</v>
       </c>
       <c r="B6" s="8">
-        <v>2.56</v>
-      </c>
-      <c r="C6" s="4" t="s">
+        <v>14.69</v>
+      </c>
+      <c r="C6" s="9" t="s">
         <v>8</v>
       </c>
       <c r="E6" s="24"/>
     </row>
-    <row r="7" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A7" s="23" t="s">
         <v>9</v>
       </c>
       <c r="B7" s="8">
-        <v>14.69</v>
-      </c>
-      <c r="C7" s="9" t="s">
+        <v>1.52</v>
+      </c>
+      <c r="C7" s="4" t="s">
         <v>10</v>
       </c>
       <c r="E7" s="24"/>
     </row>
-    <row r="8" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A8" s="23" t="s">
         <v>11</v>
       </c>
       <c r="B8" s="8">
-        <v>1.52</v>
-      </c>
-      <c r="C8" s="4" t="s">
+        <v>3.26</v>
+      </c>
+      <c r="C8" s="9" t="s">
         <v>12</v>
       </c>
+      <c r="D8" s="9" t="s">
+        <v>13</v>
+      </c>
       <c r="E8" s="24"/>
     </row>
-    <row r="9" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A9" s="23" t="s">
-        <v>13</v>
+        <v>31</v>
       </c>
       <c r="B9" s="8">
-        <v>3.26</v>
+        <v>3.81</v>
       </c>
       <c r="C9" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="D9" s="9"/>
+      <c r="E9" s="24"/>
+    </row>
+    <row r="10" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+      <c r="A10" s="23" t="s">
         <v>14</v>
       </c>
-      <c r="D9" s="9" t="s">
+      <c r="B10" s="8">
+        <v>19.989999999999998</v>
+      </c>
+      <c r="C10" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="E9" s="24"/>
-    </row>
-    <row r="10" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A10" s="23" t="s">
-        <v>38</v>
-      </c>
-      <c r="B10" s="8">
-        <v>3.81</v>
-      </c>
-      <c r="C10" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="D10" s="9"/>
+      <c r="D10" s="9" t="s">
+        <v>28</v>
+      </c>
       <c r="E10" s="24"/>
     </row>
-    <row r="11" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A11" s="23" t="s">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A11" s="41" t="s">
+        <v>25</v>
+      </c>
+      <c r="B11" s="42">
+        <f>SUM(B4:B10)</f>
+        <v>74.7</v>
+      </c>
+      <c r="C11" s="12"/>
+      <c r="D11" s="43"/>
+      <c r="E11" s="29"/>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A12" s="44"/>
+      <c r="B12" s="45"/>
+    </row>
+    <row r="14" spans="1:5" ht="18.5" x14ac:dyDescent="0.35">
+      <c r="A14" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="B14" s="18" t="s">
+        <v>1</v>
+      </c>
+      <c r="C14" s="19" t="s">
+        <v>2</v>
+      </c>
+      <c r="D14" s="19" t="s">
+        <v>3</v>
+      </c>
+      <c r="E14" s="20" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+      <c r="A15" s="28" t="s">
+        <v>18</v>
+      </c>
+      <c r="B15" s="33">
+        <v>9.48</v>
+      </c>
+      <c r="C15" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="D15" s="13"/>
+      <c r="E15" s="29"/>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A16" s="25" t="s">
         <v>16</v>
       </c>
-      <c r="B11" s="8">
-        <v>19.989999999999998</v>
-      </c>
-      <c r="C11" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="D11" s="9" t="s">
+      <c r="B16" s="34">
+        <f>SUM(B15:B15)</f>
+        <v>9.48</v>
+      </c>
+      <c r="C16" s="14"/>
+      <c r="D16" s="15"/>
+      <c r="E16" s="27"/>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="B18" s="10"/>
+    </row>
+    <row r="19" spans="1:5" ht="18.5" x14ac:dyDescent="0.35">
+      <c r="A19" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="B19" s="18" t="s">
+        <v>1</v>
+      </c>
+      <c r="C19" s="19" t="s">
+        <v>2</v>
+      </c>
+      <c r="D19" s="19" t="s">
+        <v>3</v>
+      </c>
+      <c r="E19" s="20" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A20" s="31"/>
+      <c r="B20" s="6"/>
+      <c r="C20" s="16"/>
+      <c r="D20" s="1"/>
+      <c r="E20" s="22"/>
+    </row>
+    <row r="21" spans="1:5" ht="188.5" x14ac:dyDescent="0.35">
+      <c r="A21" s="32" t="s">
+        <v>21</v>
+      </c>
+      <c r="B21" s="8">
+        <v>5.39</v>
+      </c>
+      <c r="C21" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="E21" s="24"/>
+    </row>
+    <row r="22" spans="1:5" ht="87" x14ac:dyDescent="0.35">
+      <c r="A22" s="32" t="s">
+        <v>22</v>
+      </c>
+      <c r="B22" s="8">
+        <v>9.6300000000000008</v>
+      </c>
+      <c r="C22" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="E22" s="24"/>
+    </row>
+    <row r="23" spans="1:5" ht="275.5" x14ac:dyDescent="0.35">
+      <c r="A23" s="30" t="s">
+        <v>33</v>
+      </c>
+      <c r="B23" s="35">
+        <v>14.99</v>
+      </c>
+      <c r="C23" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="E11" s="24"/>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" s="41" t="s">
-        <v>31</v>
-      </c>
-      <c r="B12" s="42">
-        <f>SUM(B4:B11)</f>
-        <v>76.7</v>
-      </c>
-      <c r="C12" s="12"/>
-      <c r="D12" s="43"/>
-      <c r="E12" s="29"/>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13" s="47"/>
-      <c r="B13" s="48"/>
-      <c r="C13" s="49"/>
-      <c r="D13" s="50"/>
-      <c r="E13" s="50"/>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A14" s="47" t="s">
-        <v>37</v>
-      </c>
-      <c r="B14" s="48"/>
-      <c r="C14" s="49"/>
-      <c r="D14" s="50"/>
-      <c r="E14" s="50"/>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A15" s="47"/>
-      <c r="B15" s="48"/>
-      <c r="C15" s="49"/>
-      <c r="D15" s="50"/>
-      <c r="E15" s="50"/>
-    </row>
-    <row r="17" spans="1:5" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A17" s="17" t="s">
-        <v>19</v>
-      </c>
-      <c r="B17" s="18" t="s">
-        <v>1</v>
-      </c>
-      <c r="C17" s="19" t="s">
-        <v>2</v>
-      </c>
-      <c r="D17" s="19" t="s">
-        <v>3</v>
-      </c>
-      <c r="E17" s="20" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A18" s="28" t="s">
-        <v>20</v>
-      </c>
-      <c r="B18" s="33">
-        <v>9.48</v>
-      </c>
-      <c r="C18" s="13" t="s">
-        <v>21</v>
-      </c>
-      <c r="D18" s="13"/>
-      <c r="E18" s="29"/>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A19" s="25" t="s">
-        <v>18</v>
-      </c>
-      <c r="B19" s="34">
-        <f>SUM(B18:B18)</f>
-        <v>9.48</v>
-      </c>
-      <c r="C19" s="14"/>
-      <c r="D19" s="15"/>
-      <c r="E19" s="27"/>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B21" s="10"/>
-    </row>
-    <row r="22" spans="1:5" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A22" s="17" t="s">
-        <v>22</v>
-      </c>
-      <c r="B22" s="18" t="s">
-        <v>1</v>
-      </c>
-      <c r="C22" s="19" t="s">
-        <v>2</v>
-      </c>
-      <c r="D22" s="19" t="s">
-        <v>3</v>
-      </c>
-      <c r="E22" s="20" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" ht="75" x14ac:dyDescent="0.25">
-      <c r="A23" s="31" t="s">
-        <v>23</v>
-      </c>
-      <c r="B23" s="6">
-        <v>5.94</v>
-      </c>
-      <c r="C23" s="16" t="s">
+      <c r="D23" s="15"/>
+      <c r="E23" s="27"/>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A24" s="25" t="s">
         <v>24</v>
       </c>
-      <c r="D23" s="1"/>
-      <c r="E23" s="22"/>
-    </row>
-    <row r="24" spans="1:5" ht="195" x14ac:dyDescent="0.25">
-      <c r="A24" s="32" t="s">
+      <c r="B24" s="26">
+        <f>SUM(B20:B23)</f>
+        <v>30.009999999999998</v>
+      </c>
+      <c r="C24" s="14"/>
+      <c r="D24" s="15"/>
+      <c r="E24" s="27"/>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A27" s="36" t="s">
         <v>25</v>
       </c>
-      <c r="B24" s="8">
-        <v>5.39</v>
-      </c>
-      <c r="C24" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="E24" s="24"/>
-    </row>
-    <row r="25" spans="1:5" ht="90" x14ac:dyDescent="0.25">
-      <c r="A25" s="32" t="s">
-        <v>26</v>
-      </c>
-      <c r="B25" s="8">
-        <v>9.6300000000000008</v>
-      </c>
-      <c r="C25" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="E25" s="24"/>
-    </row>
-    <row r="26" spans="1:5" ht="75" x14ac:dyDescent="0.25">
-      <c r="A26" s="30" t="s">
-        <v>28</v>
-      </c>
-      <c r="B26" s="35">
-        <v>6.99</v>
-      </c>
-      <c r="C26" s="11" t="s">
-        <v>29</v>
-      </c>
-      <c r="D26" s="15"/>
-      <c r="E26" s="27"/>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A27" s="25" t="s">
-        <v>30</v>
-      </c>
-      <c r="B27" s="26">
-        <f>SUM(B23:B26)</f>
-        <v>27.950000000000003</v>
-      </c>
-      <c r="C27" s="14"/>
-      <c r="D27" s="15"/>
-      <c r="E27" s="27"/>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A30" s="36" t="s">
-        <v>31</v>
-      </c>
-      <c r="B30" s="40">
-        <f>B27+B19+B12</f>
-        <v>114.13000000000001</v>
-      </c>
-      <c r="C30" s="37"/>
-      <c r="D30" s="38"/>
-      <c r="E30" s="39"/>
+      <c r="B27" s="40">
+        <f>B24+B16+B11</f>
+        <v>114.19</v>
+      </c>
+      <c r="C27" s="37"/>
+      <c r="D27" s="38"/>
+      <c r="E27" s="39"/>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:E1"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="A17" r:id="rId1" xr:uid="{7A388DA4-8AB8-4074-8094-4B0804BAB806}"/>
-    <hyperlink ref="A22" r:id="rId2" xr:uid="{42958239-F874-4DDD-B509-93D996437A78}"/>
+    <hyperlink ref="A14" r:id="rId1" xr:uid="{7A388DA4-8AB8-4074-8094-4B0804BAB806}"/>
+    <hyperlink ref="A19" r:id="rId2" xr:uid="{42958239-F874-4DDD-B509-93D996437A78}"/>
     <hyperlink ref="C4" r:id="rId3" xr:uid="{E2658E97-4F9C-466E-95BB-853BB73A16E6}"/>
-    <hyperlink ref="C5" r:id="rId4" xr:uid="{4E086F89-6BA2-4C6E-B434-0ED490A57897}"/>
-    <hyperlink ref="C7" r:id="rId5" xr:uid="{8A2B384E-04F5-4D6E-BD3F-6EB5A4287840}"/>
-    <hyperlink ref="C8" r:id="rId6" xr:uid="{252578D4-816E-4ED9-A8F8-447452C07AB4}"/>
-    <hyperlink ref="C18" r:id="rId7" xr:uid="{BA54686D-C43A-4864-AE59-CEFAC17C4B5A}"/>
-    <hyperlink ref="C23" r:id="rId8" xr:uid="{6C35DF80-3649-4C40-B286-D66779DFEAC4}"/>
-    <hyperlink ref="C25" r:id="rId9" xr:uid="{91793F10-F308-480D-A723-E92E6D3C8728}"/>
-    <hyperlink ref="C9" r:id="rId10" xr:uid="{FA9E4B20-946E-EF45-A588-25B811669317}"/>
-    <hyperlink ref="C11" r:id="rId11" xr:uid="{1E51478A-A3EF-784A-B1A2-55FAB0E3463B}"/>
-    <hyperlink ref="C26" r:id="rId12" xr:uid="{C2058682-2E5A-4C0E-A57C-AD3EC3D92617}"/>
-    <hyperlink ref="C6" r:id="rId13" xr:uid="{6014AF85-DBF7-4C18-A167-6E5D7A515AB1}"/>
-    <hyperlink ref="C24" r:id="rId14" display="https://www.amazon.co.uk/Kingston-microSD-SDCS2-Adapter-Included/dp/B07YGZ7FY7/ref=dp_fod_sccl_1/261-1134349-6599609?pd_rd_w=JH7rA&amp;content-id=amzn1.sym.fd0b82fb-e9ae-42a5-94a3-41ec499cc326&amp;pf_rd_p=fd0b82fb-e9ae-42a5-94a3-41ec499cc326&amp;pf_rd_r=V60CWAFYHBZSZT34FAE6&amp;pd_rd_wg=Zddrw&amp;pd_rd_r=69810c34-8201-47c8-ac63-c507c1bffe03&amp;pd_rd_i=B07YGZ7FY7&amp;psc=1" xr:uid="{7D7CC5CC-2FFD-4B3F-9EFF-EE7C8A550DB5}"/>
-    <hyperlink ref="C10" r:id="rId15" xr:uid="{CE9A6988-AC95-4139-B726-28F7B05AD99B}"/>
+    <hyperlink ref="C6" r:id="rId4" xr:uid="{8A2B384E-04F5-4D6E-BD3F-6EB5A4287840}"/>
+    <hyperlink ref="C7" r:id="rId5" xr:uid="{252578D4-816E-4ED9-A8F8-447452C07AB4}"/>
+    <hyperlink ref="C15" r:id="rId6" xr:uid="{BA54686D-C43A-4864-AE59-CEFAC17C4B5A}"/>
+    <hyperlink ref="C22" r:id="rId7" xr:uid="{91793F10-F308-480D-A723-E92E6D3C8728}"/>
+    <hyperlink ref="C8" r:id="rId8" xr:uid="{FA9E4B20-946E-EF45-A588-25B811669317}"/>
+    <hyperlink ref="C10" r:id="rId9" xr:uid="{1E51478A-A3EF-784A-B1A2-55FAB0E3463B}"/>
+    <hyperlink ref="C23" r:id="rId10" display="https://www.amazon.co.uk/Miuzei-Breadboard-Compatible-Resistance-Electronics/dp/B0BJF6TZJX/ref=sr_1_19?crid=3R9F0OJOUYCA9&amp;dib=eyJ2IjoiMSJ9.h_tAfB-cQSSSj9kVebIKTm8BUwW7PrPfegMu3NKpTFjNoeOf_41z1YhNh0Gww9ReneTs_qa5sYsYiM6CYuEGvDWzFyjX3bZHIMeFw-zuEmYY4pQ4q8NeyREWLEq2xszSpYvwJKqERJV_hhL9JNeMCTljkE-EoA2r5xwK-SiPIYGa5X8zA7G0JXUdAxzTTV2_1oA8tYhtEwvcaFIJ6F-4nEAwgmEukvir2M_v8dmJNs4.fhHxV_6PNS0VasA2yOyGmHuzc1NoGtdSDWtI_NO1VXQ&amp;dib_tag=se&amp;keywords=arduino+starter+kit+without+board&amp;nsdOptOutParam=true&amp;qid=1729960467&amp;sprefix=arduino+starter+kit+without+board%2Caps%2C74&amp;sr=8-19" xr:uid="{C2058682-2E5A-4C0E-A57C-AD3EC3D92617}"/>
+    <hyperlink ref="C5" r:id="rId11" xr:uid="{6014AF85-DBF7-4C18-A167-6E5D7A515AB1}"/>
+    <hyperlink ref="C21" r:id="rId12" display="https://www.amazon.co.uk/Kingston-microSD-SDCS2-Adapter-Included/dp/B07YGZ7FY7/ref=dp_fod_sccl_1/261-1134349-6599609?pd_rd_w=JH7rA&amp;content-id=amzn1.sym.fd0b82fb-e9ae-42a5-94a3-41ec499cc326&amp;pf_rd_p=fd0b82fb-e9ae-42a5-94a3-41ec499cc326&amp;pf_rd_r=V60CWAFYHBZSZT34FAE6&amp;pd_rd_wg=Zddrw&amp;pd_rd_r=69810c34-8201-47c8-ac63-c507c1bffe03&amp;pd_rd_i=B07YGZ7FY7&amp;psc=1" xr:uid="{7D7CC5CC-2FFD-4B3F-9EFF-EE7C8A550DB5}"/>
+    <hyperlink ref="C9" r:id="rId13" xr:uid="{CE9A6988-AC95-4139-B726-28F7B05AD99B}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="4294967293" r:id="rId16"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="4294967293" r:id="rId14"/>
 </worksheet>
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100440163E119984A46B4DEE01C90EB16FD" ma:contentTypeVersion="15" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="72f6df3e6b6ea98f20bc093e63ce42aa">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="eba8574a-cd14-4682-9890-3b880ddf53c2" xmlns:ns3="a98da063-3065-4fe5-b6b6-048e827f3133" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="4fae58a7643a48e124f3d44627836b46" ns2:_="" ns3:_="">
     <xsd:import namespace="eba8574a-cd14-4682-9890-3b880ddf53c2"/>
@@ -1401,15 +1352,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
@@ -1422,6 +1364,14 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{24CDA8D9-D8F1-499A-8FE1-D838D6B0A203}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A0B4DBE8-8C23-40F1-AF8E-04EA37C62ADD}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -1440,14 +1390,6 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{24CDA8D9-D8F1-499A-8FE1-D838D6B0A203}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FA3657B6-10A6-4E90-BBAA-0417AFC83B29}">
   <ds:schemaRefs>
